--- a/employee_report.xlsx
+++ b/employee_report.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>I'm doing well, thank you! How can I assist you today?</t>
+          <t>Alice Smith is a Software Engineer in the Engineering department. She was hired on May 15, 2020. Her email address is alice.smith@example.com, and she earns a salary of $85,000 per year. Alice's performance rating is 4.5 out of 5, indicating strong performance in her role.</t>
         </is>
       </c>
     </row>
